--- a/monitoring-iku-33-pembilang.xlsx
+++ b/monitoring-iku-33-pembilang.xlsx
@@ -209,34 +209,49 @@
     <t>Magang di PT Wijaya Karya (Persero) Tbk Divisi EPCC, Proyek Pembangunan Terminal LPG Refrigerated Jawa Timur Tahap 2, Lingkup Terminal Sisi Darat dan Jetty</t>
   </si>
   <si>
+    <t>Hari Wiki Utama S.T., M.Eng.</t>
+  </si>
+  <si>
+    <t>F1D322024</t>
+  </si>
+  <si>
+    <t>YAYUNG DELON GALENDRY</t>
+  </si>
+  <si>
+    <t>Magang terintegrasi tugas akhir di BMKG Padang Panjang</t>
+  </si>
+  <si>
+    <t>Ir. Juventa S.T., M.T.</t>
+  </si>
+  <si>
+    <t>F1D322039</t>
+  </si>
+  <si>
+    <t>RUSMANTI ADELINA BANCIN</t>
+  </si>
+  <si>
+    <t>Ir. Anggi Deliana S S.T., M.T.</t>
+  </si>
+  <si>
+    <t>F1D322015</t>
+  </si>
+  <si>
+    <t>Annisa Amalina Fauziyah</t>
+  </si>
+  <si>
+    <t>Magang Terintegrasi Tugas Akhir di BMKG Padang Panjang</t>
+  </si>
+  <si>
     <t>Sarwo Sucitra Amin M.T.</t>
   </si>
   <si>
-    <t>F1D322024</t>
-  </si>
-  <si>
-    <t>YAYUNG DELON GALENDRY</t>
-  </si>
-  <si>
-    <t>Magang terintegrasi tugas akhir di BMKG Padang Panjang</t>
-  </si>
-  <si>
-    <t>Juventa S.T., M.T.</t>
-  </si>
-  <si>
-    <t>F1D322039</t>
-  </si>
-  <si>
-    <t>RUSMANTI ADELINA BANCIN</t>
-  </si>
-  <si>
-    <t>Hari Wiki Utama S.T., M.Eng.</t>
-  </si>
-  <si>
-    <t>F1D322017</t>
-  </si>
-  <si>
-    <t>LAYSHA INDAH MEILANI</t>
+    <t>F1D322022</t>
+  </si>
+  <si>
+    <t>Gita Sari</t>
+  </si>
+  <si>
+    <t>Magang Terintegrasi Tugas Akhir di BMKG Lampung</t>
   </si>
   <si>
     <t>Maulina Tanjung M.Si.</t>
@@ -248,9 +263,6 @@
     <t>OKTAVIA GRATIA SIHOMBING</t>
   </si>
   <si>
-    <t>Magang Terintegrasi Tugas Akhir di BMKG Lampung</t>
-  </si>
-  <si>
     <t>Diah Wully Agustine M.T.</t>
   </si>
   <si>
@@ -258,18 +270,6 @@
   </si>
   <si>
     <t>Enjels Elyana Batuara</t>
-  </si>
-  <si>
-    <t>Ir. Anggi Deliana S S.T., M.T.</t>
-  </si>
-  <si>
-    <t>F1D322014</t>
-  </si>
-  <si>
-    <t>Fani Sefiyanti</t>
-  </si>
-  <si>
-    <t>Magang Terintegrasi Tugas Akhir di BMKG Bengkulu</t>
   </si>
   <si>
     <t>Riskal Fadli S.T., M.Eng.</t>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>199201162022031004</v>
+        <v>199103162019031019</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>199103162019031019</v>
+        <v>198912172019032014</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="K18">
         <v>20251</v>
@@ -1666,16 +1666,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>198609202024212028</v>
+        <v>199201162022031004</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>2022</v>
@@ -1693,7 +1693,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19">
         <v>20251</v>
@@ -1701,16 +1701,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>199008052024062001</v>
+        <v>198609202024212028</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>2022</v>
@@ -1728,7 +1728,7 @@
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20">
         <v>20251</v>
@@ -1736,16 +1736,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>198912172019032014</v>
+        <v>199008052024062001</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>2022</v>
@@ -1763,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K21">
         <v>20251</v>
